--- a/資料集/帽子.xlsx
+++ b/資料集/帽子.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laiwei/Desktop/91APP_Image_Coding/資料集/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3836ED40-53F5-E141-88DC-1A42C70DC7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D6DFF4-7788-3341-9F8D-22409C9F3F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1762" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="444">
   <si>
     <t>商品分類</t>
   </si>
@@ -1533,6 +1533,18 @@
   </si>
   <si>
     <t>https://tpimage.91app.com/adidas/IT4642_OK/1-Main/All/IT4642_04.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/HM1778_OK/1-Main/All/HM1778_01.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/HM1778_OK/1-Main/All/HM1778_02.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/HM1778_OK/1-Main/All/HM1778_03.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/HM1778_OK/1-Main/All/HM1778_04.jpg</t>
   </si>
 </sst>
 </file>
@@ -1978,8 +1990,8 @@
   <dimension ref="A1:E1649"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A435" sqref="A435"/>
+      <pane ySplit="1" topLeftCell="A396" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G404" sqref="G404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -9641,27 +9653,75 @@
       </c>
     </row>
     <row r="426" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E426" s="5" t="str" cm="1">
+      <c r="A426" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C426" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D426" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E426" s="5" cm="1">
         <f t="array" ref="E426">IF(C426="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C426)*(工作表2!B:B=D426), 0)),""))</f>
-        <v/>
+        <v>12</v>
       </c>
     </row>
     <row r="427" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E427" s="5" t="str" cm="1">
+      <c r="A427" s="25" t="s">
+        <v>441</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C427" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D427" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E427" s="5" cm="1">
         <f t="array" ref="E427">IF(C427="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C427)*(工作表2!B:B=D427), 0)),""))</f>
-        <v/>
+        <v>13</v>
       </c>
     </row>
     <row r="428" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E428" s="5" t="str" cm="1">
+      <c r="A428" s="25" t="s">
+        <v>442</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C428" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D428" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E428" s="5" cm="1">
         <f t="array" ref="E428">IF(C428="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C428)*(工作表2!B:B=D428), 0)),""))</f>
-        <v/>
+        <v>19</v>
       </c>
     </row>
     <row r="429" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E429" s="5" t="str" cm="1">
+      <c r="A429" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C429" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D429" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E429" s="5" cm="1">
         <f t="array" ref="E429">IF(C429="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C429)*(工作表2!B:B=D429), 0)),""))</f>
-        <v/>
+        <v>19</v>
       </c>
     </row>
     <row r="430" spans="1:5" ht="15.75" customHeight="1">
@@ -18582,219 +18642,223 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A216" r:id="rId1" xr:uid="{96EC64DC-888A-364A-8595-C8A91C321BEB}"/>
-    <hyperlink ref="A217" r:id="rId2" xr:uid="{5CED4BCB-5312-8141-8F3F-95E14CF18C32}"/>
-    <hyperlink ref="A218" r:id="rId3" xr:uid="{DE9755B3-1DEF-C64D-AE5F-100AB9E0949C}"/>
-    <hyperlink ref="A219" r:id="rId4" xr:uid="{B1F167AE-26C3-4848-ADA2-D5A52052330D}"/>
-    <hyperlink ref="A220" r:id="rId5" xr:uid="{66B62944-E1E1-704F-9744-9BE297DBCC0E}"/>
-    <hyperlink ref="A221" r:id="rId6" xr:uid="{7B13AF40-1F4E-3A4D-8BAA-C2473BEA36A5}"/>
-    <hyperlink ref="A222" r:id="rId7" xr:uid="{1EB112EE-1935-F449-9ACB-AC46C426A536}"/>
-    <hyperlink ref="A223" r:id="rId8" xr:uid="{95B68991-F058-304B-86D0-B49B80CCB75C}"/>
-    <hyperlink ref="A224" r:id="rId9" xr:uid="{DE448D4B-7C90-F54A-AFF4-E881C398B0EA}"/>
-    <hyperlink ref="A225" r:id="rId10" xr:uid="{A710CAF7-A1C8-A04F-A855-B780F6361D20}"/>
-    <hyperlink ref="A226" r:id="rId11" xr:uid="{447CFB8C-19E6-D547-944B-9FF8EB5A9FB5}"/>
-    <hyperlink ref="A227" r:id="rId12" xr:uid="{35378B95-A65A-0B42-88C5-980BA2C22B6C}"/>
-    <hyperlink ref="A228" r:id="rId13" xr:uid="{FE0104A6-708A-1148-808C-94F795C79158}"/>
-    <hyperlink ref="A229" r:id="rId14" xr:uid="{38F11152-1850-864D-839B-DD35ECE113C1}"/>
-    <hyperlink ref="A230" r:id="rId15" xr:uid="{261BF512-769A-0145-A41D-0F1707AB7C37}"/>
-    <hyperlink ref="A231" r:id="rId16" xr:uid="{118D8E35-08F5-FB4B-AED4-1ED2DE8FD32B}"/>
-    <hyperlink ref="A232" r:id="rId17" xr:uid="{9ECC7233-1CC6-7540-B5A5-5B1B71D460B7}"/>
-    <hyperlink ref="A233" r:id="rId18" xr:uid="{BDDC0F56-96DA-B94B-94D4-DC5594DE0E17}"/>
-    <hyperlink ref="A234" r:id="rId19" xr:uid="{F049E740-24DF-084A-81DB-B9B5B60ECCC8}"/>
-    <hyperlink ref="A235" r:id="rId20" xr:uid="{8FA43410-2626-5E49-8BAE-0683E0FBEBAA}"/>
-    <hyperlink ref="A236" r:id="rId21" xr:uid="{E48CF5F5-6D17-DF4C-BEDE-1E046B53D09E}"/>
-    <hyperlink ref="A237" r:id="rId22" xr:uid="{874D9D45-2A47-634C-AB10-A5FEAFCD98B3}"/>
-    <hyperlink ref="A238" r:id="rId23" xr:uid="{57A5F7F1-9E4B-744D-9BB3-0BBE2C24D335}"/>
-    <hyperlink ref="A239" r:id="rId24" xr:uid="{C68454F2-CA7A-A144-B101-9BE9E716C8DE}"/>
-    <hyperlink ref="A240" r:id="rId25" xr:uid="{34BE06A6-6444-B543-AFAD-4BFF0E0A4323}"/>
-    <hyperlink ref="A241" r:id="rId26" xr:uid="{C1259A8C-986F-F946-A7DB-C48D228FB9AF}"/>
-    <hyperlink ref="A242" r:id="rId27" xr:uid="{6F21AC50-5889-304F-9E5D-547B6330E28F}"/>
-    <hyperlink ref="A243" r:id="rId28" xr:uid="{99576674-105A-8142-A917-78F31DCE6D98}"/>
-    <hyperlink ref="A244" r:id="rId29" xr:uid="{58D445C0-D99C-594A-9F84-047BCE4EC568}"/>
-    <hyperlink ref="A245" r:id="rId30" xr:uid="{B9809826-ACE2-754D-9F6B-32FF9820F87E}"/>
-    <hyperlink ref="A246" r:id="rId31" xr:uid="{3AC8617F-E4D9-6542-A66C-6BF8C9875017}"/>
-    <hyperlink ref="A247" r:id="rId32" xr:uid="{84C72AEE-80DD-F543-BE80-5AB140F981EE}"/>
-    <hyperlink ref="A248" r:id="rId33" xr:uid="{5325D853-64D9-5642-BE2E-85F9AFBBAA55}"/>
-    <hyperlink ref="A249" r:id="rId34" xr:uid="{0FDD2BB0-055E-B445-AC29-4CDB8412DC31}"/>
-    <hyperlink ref="A250" r:id="rId35" xr:uid="{8A0D41C4-C327-3743-A362-DE0A5230CA80}"/>
-    <hyperlink ref="A251" r:id="rId36" xr:uid="{F48A617D-E467-0C4A-986E-03074F1ABE48}"/>
-    <hyperlink ref="A252" r:id="rId37" xr:uid="{9EC99952-3687-F449-9D55-AAC98E46DA55}"/>
-    <hyperlink ref="A253" r:id="rId38" xr:uid="{99E33A33-4EE0-4A46-A677-442CB771059C}"/>
-    <hyperlink ref="A254" r:id="rId39" xr:uid="{BF6D4E31-89B8-9A4B-B4D4-966D21B26928}"/>
-    <hyperlink ref="A255" r:id="rId40" xr:uid="{8EFB5FA2-E139-5044-9A2D-1B375DD04C29}"/>
-    <hyperlink ref="A256" r:id="rId41" xr:uid="{477A8BA0-EB33-4B46-B06B-1C7FF07FA1F2}"/>
-    <hyperlink ref="A257" r:id="rId42" xr:uid="{9C5EF9DE-C75F-1345-AC31-6B23DEEAEFB3}"/>
-    <hyperlink ref="A258" r:id="rId43" xr:uid="{49707A56-BF3F-6949-B29D-4B80F67DF321}"/>
-    <hyperlink ref="A259" r:id="rId44" xr:uid="{B03C655F-E79E-E449-B141-9C6E003BA684}"/>
-    <hyperlink ref="A260" r:id="rId45" xr:uid="{E2F3A8EE-C700-5C4B-983E-B7C5DB867B49}"/>
-    <hyperlink ref="A261" r:id="rId46" xr:uid="{01E6E626-0D75-7F48-9CFD-083FC718ACD5}"/>
-    <hyperlink ref="A262" r:id="rId47" xr:uid="{86B8281B-2A3B-3B46-B9B8-7368A1570EA5}"/>
-    <hyperlink ref="A263" r:id="rId48" xr:uid="{FFD4A1E8-03EB-2948-B6BC-4481F44427B9}"/>
-    <hyperlink ref="A264" r:id="rId49" xr:uid="{0F5F7F32-747C-AC4B-A689-89C1BB73BDAF}"/>
-    <hyperlink ref="A265" r:id="rId50" xr:uid="{EB44BEEB-B93F-2240-AF09-ECE05DB90D09}"/>
-    <hyperlink ref="A266" r:id="rId51" xr:uid="{1C397A9C-288C-314C-BAE2-82D3CCCA9697}"/>
-    <hyperlink ref="A267" r:id="rId52" xr:uid="{D08B8065-C99B-3F4F-AD80-9B7CEC518482}"/>
-    <hyperlink ref="A268" r:id="rId53" xr:uid="{C534703F-A135-AE4A-8244-E14B7EB50A88}"/>
-    <hyperlink ref="A269" r:id="rId54" xr:uid="{3878060D-EA05-1E46-830F-65C89654CCA0}"/>
-    <hyperlink ref="A270" r:id="rId55" xr:uid="{F2E00374-D962-0F44-AAB5-63E7D87AB22E}"/>
-    <hyperlink ref="A271" r:id="rId56" xr:uid="{3039CDAE-E5E9-DC4D-B9AB-E547DE40701E}"/>
-    <hyperlink ref="A272" r:id="rId57" xr:uid="{D7C1B7DE-B233-2544-B597-6AD59F3E3A68}"/>
-    <hyperlink ref="A273" r:id="rId58" xr:uid="{1F774A8C-2DBC-B74E-901D-8109FB36C3A3}"/>
-    <hyperlink ref="A274" r:id="rId59" xr:uid="{9A221440-1E88-3F48-B7D3-F1DC323741DF}"/>
-    <hyperlink ref="A275" r:id="rId60" xr:uid="{246E7FD2-9332-BC4F-9980-FDE387589570}"/>
-    <hyperlink ref="A276" r:id="rId61" xr:uid="{90BA7D36-BE23-B34C-9F97-4E00233E2D2E}"/>
-    <hyperlink ref="A277" r:id="rId62" xr:uid="{2CB4F970-AC01-D842-B0D5-725BD0516020}"/>
-    <hyperlink ref="A278" r:id="rId63" xr:uid="{BE45E7F1-04BC-9646-9F79-10B32E5775A8}"/>
-    <hyperlink ref="A279" r:id="rId64" xr:uid="{6B31EC4D-3CDB-584D-B6ED-39B8C5EF431A}"/>
-    <hyperlink ref="A280" r:id="rId65" xr:uid="{CC7F31BB-6F13-514E-87B9-A12F2E690804}"/>
-    <hyperlink ref="A281" r:id="rId66" xr:uid="{5F5176EF-4FE2-3F4B-8B8A-C53DB2587664}"/>
-    <hyperlink ref="A282" r:id="rId67" xr:uid="{DCD55CA8-7551-6E43-B524-E3299D10074C}"/>
-    <hyperlink ref="A283" r:id="rId68" xr:uid="{044A7FAA-6B3A-5349-BB31-F12330DE75AE}"/>
-    <hyperlink ref="A284" r:id="rId69" xr:uid="{3DE4EDC7-66C8-814F-8EAA-0E6430CA21A9}"/>
-    <hyperlink ref="A285" r:id="rId70" xr:uid="{D69640E0-A258-804D-99E7-40D14DE61A10}"/>
-    <hyperlink ref="A286" r:id="rId71" xr:uid="{9DED1C4B-F201-CA4F-9598-6992844DD0B4}"/>
-    <hyperlink ref="A287" r:id="rId72" xr:uid="{30CA1473-74D5-674B-8162-DC835732FFC4}"/>
-    <hyperlink ref="A288" r:id="rId73" xr:uid="{E99C1AA6-AD91-2C4B-8108-B3A0C365E357}"/>
-    <hyperlink ref="A289" r:id="rId74" xr:uid="{9ECCC195-41D0-B347-B00A-19DA0CA60EB9}"/>
-    <hyperlink ref="A290" r:id="rId75" xr:uid="{E8A63187-4BA5-AB4A-A871-0E3F2BB4D164}"/>
-    <hyperlink ref="A291" r:id="rId76" xr:uid="{BDE844A3-D4DA-644A-90E1-101B00061AAB}"/>
-    <hyperlink ref="A292" r:id="rId77" xr:uid="{2A646E89-A03F-894E-A150-9338B5D75929}"/>
-    <hyperlink ref="A293" r:id="rId78" xr:uid="{67DEDD80-95CE-3B48-A077-6B6761A8DCF8}"/>
-    <hyperlink ref="A294" r:id="rId79" xr:uid="{2881E3C5-FAF4-B749-A876-DE5E537818BF}"/>
-    <hyperlink ref="A295" r:id="rId80" xr:uid="{65E32D8D-2D8B-5F45-BBBE-80FA2DEB95F6}"/>
-    <hyperlink ref="A296" r:id="rId81" xr:uid="{97ACA4ED-974A-AF42-9591-DF971EF10245}"/>
-    <hyperlink ref="A297" r:id="rId82" xr:uid="{5EB1D9CA-30CC-0547-94B5-135CFBDEE659}"/>
-    <hyperlink ref="A298" r:id="rId83" xr:uid="{62C19E83-7ACD-1142-AC6E-27A2E0F4FA07}"/>
-    <hyperlink ref="A299" r:id="rId84" xr:uid="{96632458-092B-D14D-948C-8C5462BDB10A}"/>
-    <hyperlink ref="A300" r:id="rId85" xr:uid="{45B2BE1B-B9E9-0B4B-91AF-2742A07BA4A2}"/>
-    <hyperlink ref="A301" r:id="rId86" xr:uid="{6256980F-3CA4-D142-8EA2-596A17218B83}"/>
-    <hyperlink ref="A302" r:id="rId87" xr:uid="{408BDE2E-B365-6048-808D-DD176D6C0AA5}"/>
-    <hyperlink ref="A303" r:id="rId88" xr:uid="{87A684CF-75DB-804C-BE24-DE1DAF847B07}"/>
-    <hyperlink ref="A304" r:id="rId89" xr:uid="{80C227D5-F25F-4C4C-899C-F282D4F13B2F}"/>
-    <hyperlink ref="A305" r:id="rId90" xr:uid="{6F7A79D8-3890-6743-8ECD-D1BF6F1AB502}"/>
-    <hyperlink ref="A306" r:id="rId91" xr:uid="{D89CE446-0BAA-E446-AD00-3A64A446A8C8}"/>
-    <hyperlink ref="A307" r:id="rId92" xr:uid="{009D6142-5CE1-C14E-8FA9-F752CB751C3C}"/>
-    <hyperlink ref="A308" r:id="rId93" xr:uid="{ACFE21AD-70F1-184E-8910-E74835015713}"/>
-    <hyperlink ref="A309" r:id="rId94" xr:uid="{3166BA4F-FFB8-C949-9B42-F4C380B65E04}"/>
-    <hyperlink ref="A310" r:id="rId95" xr:uid="{0154FC0F-29E0-2842-AF7A-6FFFB2E36A8E}"/>
-    <hyperlink ref="A311" r:id="rId96" xr:uid="{92608D27-E820-1343-994C-02CAD25DAA25}"/>
-    <hyperlink ref="A312" r:id="rId97" xr:uid="{410E1620-DA2B-A743-8A27-A0728B1E7971}"/>
-    <hyperlink ref="A313" r:id="rId98" xr:uid="{238DF38D-42F3-9C4F-B580-A4CE3651D74E}"/>
-    <hyperlink ref="A314" r:id="rId99" xr:uid="{64445201-8776-1945-901B-AAEC21249E48}"/>
-    <hyperlink ref="A315" r:id="rId100" xr:uid="{BB9BF52B-6A32-FC48-BE13-9D3C9D76CD42}"/>
-    <hyperlink ref="A316" r:id="rId101" xr:uid="{9CFCE34E-C276-D34D-BB82-54AAD30F3DAC}"/>
-    <hyperlink ref="A317" r:id="rId102" xr:uid="{7DDD1EBF-9E73-8B43-9D49-B98FD224B12B}"/>
-    <hyperlink ref="A318" r:id="rId103" xr:uid="{53EB488A-394C-F34A-9688-E538EA970CE3}"/>
-    <hyperlink ref="A319" r:id="rId104" xr:uid="{21E0CD73-F540-8842-AB19-6B70E39FD6EB}"/>
-    <hyperlink ref="A320" r:id="rId105" xr:uid="{E45FC78C-83B2-9E4C-A0F9-A14BE4F1136D}"/>
-    <hyperlink ref="A321" r:id="rId106" xr:uid="{31D9F51B-2465-9646-857E-CCDC81406B5A}"/>
-    <hyperlink ref="A322" r:id="rId107" xr:uid="{B6117560-BA8F-6F42-9975-319E7F8A123F}"/>
-    <hyperlink ref="A323" r:id="rId108" xr:uid="{02E68F0F-A006-DE4F-9C1D-8E1D831D8FFA}"/>
-    <hyperlink ref="A324" r:id="rId109" xr:uid="{E6D08C84-A01C-0E47-8898-C94E0F0D1B32}"/>
-    <hyperlink ref="A325" r:id="rId110" xr:uid="{65F33488-4D66-B249-B32A-5BCF94F7BD8C}"/>
-    <hyperlink ref="A326" r:id="rId111" xr:uid="{06112C77-545B-0947-A863-A29F225FF889}"/>
-    <hyperlink ref="A327" r:id="rId112" xr:uid="{43B627DC-5BE7-0B4A-9DB2-AF73600547E9}"/>
-    <hyperlink ref="A328" r:id="rId113" xr:uid="{9D35E6B3-CFE6-2A48-8F8C-E27A58538C93}"/>
-    <hyperlink ref="A329" r:id="rId114" xr:uid="{5E1467AA-E943-534F-8F94-10B20B2CE267}"/>
-    <hyperlink ref="A330" r:id="rId115" xr:uid="{C8DBE558-B991-A34C-B35B-46EB7A9D2DEA}"/>
-    <hyperlink ref="A331" r:id="rId116" xr:uid="{14CBECC5-0AD4-8745-8825-D4F506850F37}"/>
-    <hyperlink ref="A332" r:id="rId117" xr:uid="{918A0F6A-8D4E-4645-BFAA-7535D9E1FDDD}"/>
-    <hyperlink ref="A333" r:id="rId118" xr:uid="{8D9CEFBA-A51A-B143-A08C-A475352BFA68}"/>
-    <hyperlink ref="A334" r:id="rId119" xr:uid="{5B46ED3C-B9D6-E942-8F8A-118B7160FACA}"/>
-    <hyperlink ref="A335" r:id="rId120" xr:uid="{F7C70D78-9B0E-124D-86E7-BFD17B538118}"/>
-    <hyperlink ref="A336" r:id="rId121" xr:uid="{BD7C6051-EBED-0747-8603-0DA309DF4CFD}"/>
-    <hyperlink ref="A337" r:id="rId122" xr:uid="{3867E939-A7FC-7C46-8A00-A0ED668C0075}"/>
-    <hyperlink ref="A338" r:id="rId123" xr:uid="{2CC0A51F-15EF-C840-AABA-7EE31E44D944}"/>
-    <hyperlink ref="A339" r:id="rId124" xr:uid="{4D9CF065-A093-0741-85A6-E340C8E72262}"/>
-    <hyperlink ref="A340" r:id="rId125" xr:uid="{917745B2-760B-1B4B-9B8C-21C9360BFA86}"/>
-    <hyperlink ref="A341" r:id="rId126" xr:uid="{ED9FA12D-73C7-0146-A81F-DA96FAAEC8D5}"/>
-    <hyperlink ref="A342" r:id="rId127" xr:uid="{0C0F9624-8FB2-A644-88BA-4F39D3F10030}"/>
-    <hyperlink ref="A343" r:id="rId128" xr:uid="{916657FE-CADE-5E43-AEC2-843342B3B401}"/>
-    <hyperlink ref="A344" r:id="rId129" xr:uid="{E2630672-97D4-9547-B215-9D0D54B45F0C}"/>
-    <hyperlink ref="A345" r:id="rId130" xr:uid="{6E0A8365-B3D4-5942-B0AB-F23716976E48}"/>
-    <hyperlink ref="A346" r:id="rId131" xr:uid="{4F0D050F-8691-1D45-B96C-40163265519B}"/>
-    <hyperlink ref="A347" r:id="rId132" xr:uid="{7E148A8D-81AC-0C46-9D6E-4C4301979BFC}"/>
-    <hyperlink ref="A348" r:id="rId133" xr:uid="{422977E0-21E2-594F-B34B-A790C4A11347}"/>
-    <hyperlink ref="A349" r:id="rId134" xr:uid="{B75B8F79-8766-0A44-AC77-D1A3B0ADD8FC}"/>
-    <hyperlink ref="A350" r:id="rId135" xr:uid="{29487983-5A04-B54E-90EA-0373B2A3B2AE}"/>
-    <hyperlink ref="A351" r:id="rId136" xr:uid="{E4ECD192-4A3B-4A4F-A0D8-4020A335ED85}"/>
-    <hyperlink ref="A352" r:id="rId137" xr:uid="{CCB5E177-3DA1-3040-B8F6-BA44577A4B71}"/>
-    <hyperlink ref="A353" r:id="rId138" xr:uid="{4B6B5078-11AF-AC47-9517-870B418F8718}"/>
-    <hyperlink ref="A354" r:id="rId139" xr:uid="{7EDB5F98-9192-6646-B83B-8107BEC7A567}"/>
-    <hyperlink ref="A355" r:id="rId140" xr:uid="{D8EB0AEB-8E68-9945-BFCD-B131B5B03CAE}"/>
-    <hyperlink ref="A356" r:id="rId141" xr:uid="{02A922D0-CF40-F741-9D36-4FE7E5531AA6}"/>
-    <hyperlink ref="A357" r:id="rId142" xr:uid="{745A7120-DDB7-034B-BA78-D951655219BE}"/>
-    <hyperlink ref="A358" r:id="rId143" xr:uid="{FF4F9F84-04BB-DD4C-A1AD-EE2512C71B5F}"/>
-    <hyperlink ref="A359" r:id="rId144" xr:uid="{28F1A4B9-D766-1D4E-B5FC-92550C340420}"/>
-    <hyperlink ref="A360" r:id="rId145" xr:uid="{3806035C-5B89-A240-8A4C-86E5529109DE}"/>
-    <hyperlink ref="A361" r:id="rId146" xr:uid="{6E791EA7-28AB-CD44-9CA3-74B47D21D672}"/>
-    <hyperlink ref="A362" r:id="rId147" xr:uid="{882E19A4-B636-D84F-82F9-850768FF8B75}"/>
-    <hyperlink ref="A363" r:id="rId148" xr:uid="{28886844-673F-2540-AD52-C8BC19A2D6B2}"/>
-    <hyperlink ref="A364" r:id="rId149" xr:uid="{3A493C6A-A6B0-3D4E-B1DD-588C8A6CE63C}"/>
-    <hyperlink ref="A365" r:id="rId150" xr:uid="{4032C558-F681-374A-A272-DD3D06092FC6}"/>
-    <hyperlink ref="A366" r:id="rId151" xr:uid="{96E118E4-A8FA-2A4C-990C-DA7E4F07672E}"/>
-    <hyperlink ref="A367" r:id="rId152" xr:uid="{FE825D45-7AA7-DE4C-A463-001D91795F6C}"/>
-    <hyperlink ref="A368" r:id="rId153" xr:uid="{82F2F25C-765E-4B4D-97AD-B8F37C3A7B2B}"/>
-    <hyperlink ref="A369" r:id="rId154" xr:uid="{7076C862-F083-C949-AB01-CA12E781D9FB}"/>
-    <hyperlink ref="A370" r:id="rId155" xr:uid="{63429773-AA92-3048-A228-D7490C8AB037}"/>
-    <hyperlink ref="A371" r:id="rId156" xr:uid="{B7042DF6-24A1-0048-B1C1-E6F9A31B6FB4}"/>
-    <hyperlink ref="A372" r:id="rId157" xr:uid="{4F759658-CFB1-6349-BE36-6381AFD04EDD}"/>
-    <hyperlink ref="A373" r:id="rId158" xr:uid="{0B3ABF94-C66D-EF40-B6AA-1C4EA28BAD5D}"/>
-    <hyperlink ref="A374" r:id="rId159" xr:uid="{AD4592CC-147F-D34D-B9DD-4F6B64D6DD7A}"/>
-    <hyperlink ref="A375" r:id="rId160" xr:uid="{6D638759-0E67-E049-968D-8A05912D146D}"/>
-    <hyperlink ref="A376" r:id="rId161" xr:uid="{2F3D6B7E-9778-1144-A89B-CC7CFE336E92}"/>
-    <hyperlink ref="A377" r:id="rId162" xr:uid="{38101EEA-C670-DE41-BF1D-BAA8E76C4CEF}"/>
-    <hyperlink ref="A378" r:id="rId163" xr:uid="{36FDFAF6-20B3-B146-BE6A-97795B330A72}"/>
-    <hyperlink ref="A379" r:id="rId164" xr:uid="{78E7E506-4FF4-C24E-85DD-587BA6AB6F78}"/>
-    <hyperlink ref="A380" r:id="rId165" xr:uid="{EF58A7EB-BCF2-E742-B632-E0A81137EE68}"/>
-    <hyperlink ref="A381" r:id="rId166" xr:uid="{2C4E90F2-6B9E-7846-8FD7-9564D14D12C0}"/>
-    <hyperlink ref="A382" r:id="rId167" xr:uid="{0F513FE0-2D9C-0B40-96DD-7350AE4B53E7}"/>
-    <hyperlink ref="A383" r:id="rId168" xr:uid="{E59C084F-48EA-5E44-8A20-2BB1C5E129F5}"/>
-    <hyperlink ref="A384" r:id="rId169" xr:uid="{1AEFD39E-DB54-6647-84D2-7EB19F2EBF5E}"/>
-    <hyperlink ref="A385" r:id="rId170" xr:uid="{8C9BD0EC-C369-B147-AF0D-BB0716808E2E}"/>
-    <hyperlink ref="A386" r:id="rId171" xr:uid="{5B5A6421-04A6-D94C-B17E-42145AAFF412}"/>
-    <hyperlink ref="A387" r:id="rId172" xr:uid="{20E0BABB-8759-944E-8FD5-4EE7B04D1640}"/>
-    <hyperlink ref="A388" r:id="rId173" xr:uid="{9E247367-E1CB-E543-B8A5-422BD71B07DE}"/>
-    <hyperlink ref="A389" r:id="rId174" xr:uid="{6A05DE32-35AA-8B4E-BCAD-C39614DAAA48}"/>
-    <hyperlink ref="A390" r:id="rId175" xr:uid="{48701AAE-FF29-4C43-A5DE-D047066E861B}"/>
-    <hyperlink ref="A391" r:id="rId176" xr:uid="{473C56B4-A82F-2B4D-A78C-443DCB5F76D2}"/>
-    <hyperlink ref="A392" r:id="rId177" xr:uid="{D0EC43EE-149B-3A4E-9083-365F6FE2DAED}"/>
-    <hyperlink ref="A393" r:id="rId178" xr:uid="{553FAFC4-6BF8-3445-96B7-2645AB62B283}"/>
-    <hyperlink ref="A394" r:id="rId179" xr:uid="{F1830212-DAEA-A144-8D4E-388F634B9539}"/>
-    <hyperlink ref="A395" r:id="rId180" xr:uid="{40C961F5-57F8-6D4E-8094-C385695A6897}"/>
-    <hyperlink ref="A396" r:id="rId181" xr:uid="{CA4BE50F-A78E-9F4C-98C1-81D6AC598C1F}"/>
-    <hyperlink ref="A397" r:id="rId182" xr:uid="{7272EBE8-7D55-F64D-9296-2A169BEC92CC}"/>
-    <hyperlink ref="A398" r:id="rId183" xr:uid="{2687C450-6E1F-5240-AA98-074F6A766B6B}"/>
-    <hyperlink ref="A399" r:id="rId184" xr:uid="{A7AE84CB-AA54-A542-8E07-BA746D9BED38}"/>
-    <hyperlink ref="A400" r:id="rId185" xr:uid="{7159A14B-39E8-AE41-BA8D-40817ADDCD2D}"/>
-    <hyperlink ref="A401" r:id="rId186" xr:uid="{8C7DA305-0676-A74F-982B-747D0B620E94}"/>
-    <hyperlink ref="A402" r:id="rId187" xr:uid="{4B89E58B-B52C-D246-B651-F2CB008474AA}"/>
-    <hyperlink ref="A403" r:id="rId188" xr:uid="{6A0C2F9F-5F9D-F447-894B-3EA56D91FD8D}"/>
-    <hyperlink ref="A404" r:id="rId189" xr:uid="{609349E0-557D-484E-8432-281C833D8461}"/>
-    <hyperlink ref="A405" r:id="rId190" xr:uid="{F7338158-B929-CA4F-8A03-D57FEF133ACB}"/>
-    <hyperlink ref="A406" r:id="rId191" xr:uid="{ACD6A030-B40A-0849-B293-DC960C8420A8}"/>
-    <hyperlink ref="A407" r:id="rId192" xr:uid="{5D52E6CA-F850-2447-9C3B-44BCE0CA9BDD}"/>
-    <hyperlink ref="A408" r:id="rId193" xr:uid="{2446E34B-CB82-E342-9894-F28B7B978065}"/>
-    <hyperlink ref="A409" r:id="rId194" xr:uid="{74001ACE-DF8D-284B-AB1B-CC380957016B}"/>
-    <hyperlink ref="A410" r:id="rId195" xr:uid="{A83129F4-1A29-314C-BF63-DE8CDFDBD41B}"/>
-    <hyperlink ref="A411" r:id="rId196" xr:uid="{7923E4C2-75C0-DD4C-9105-27BAC5AA4B6B}"/>
-    <hyperlink ref="A412" r:id="rId197" xr:uid="{4BE392BD-7D7B-F24C-9351-B34394EB2D42}"/>
-    <hyperlink ref="A413" r:id="rId198" xr:uid="{19DCA680-3466-AC46-A62C-E17A5A22781E}"/>
-    <hyperlink ref="A414" r:id="rId199" xr:uid="{41548F96-F9B1-DC46-AF99-117F6997DEC8}"/>
-    <hyperlink ref="A415" r:id="rId200" xr:uid="{63334E1C-2ECA-CB4E-BFE1-EB15B781F7B4}"/>
-    <hyperlink ref="A416" r:id="rId201" xr:uid="{5656D3E1-3424-B040-A871-D8DAFBA1DAC5}"/>
-    <hyperlink ref="A417" r:id="rId202" xr:uid="{C25791CF-84C5-6244-9477-F81330755C4B}"/>
-    <hyperlink ref="A418" r:id="rId203" xr:uid="{B8B21B6F-6310-634E-B7D5-423A1EE12A15}"/>
-    <hyperlink ref="A419" r:id="rId204" xr:uid="{A30E5294-BC85-D748-9785-BE9383593911}"/>
-    <hyperlink ref="A420" r:id="rId205" xr:uid="{CDF0C795-08C7-8C4A-A55D-09F0D9051132}"/>
-    <hyperlink ref="A421" r:id="rId206" xr:uid="{0D4B9A6F-ECF3-E543-B96E-8DB1310DEA93}"/>
-    <hyperlink ref="A422" r:id="rId207" xr:uid="{7DF127D8-6965-374C-800A-34DB750F5FF2}"/>
-    <hyperlink ref="A423" r:id="rId208" xr:uid="{230B8E53-B458-A24D-9E01-40D1B4917152}"/>
-    <hyperlink ref="A424" r:id="rId209" xr:uid="{7E9B332D-3809-CA4D-8814-D74DDABC8FAF}"/>
-    <hyperlink ref="A425" r:id="rId210" xr:uid="{81F0084F-D3EE-DE45-B8D4-868F73A04920}"/>
+    <hyperlink ref="A425" r:id="rId1" xr:uid="{81F0084F-D3EE-DE45-B8D4-868F73A04920}"/>
+    <hyperlink ref="A424" r:id="rId2" xr:uid="{7E9B332D-3809-CA4D-8814-D74DDABC8FAF}"/>
+    <hyperlink ref="A423" r:id="rId3" xr:uid="{230B8E53-B458-A24D-9E01-40D1B4917152}"/>
+    <hyperlink ref="A422" r:id="rId4" xr:uid="{7DF127D8-6965-374C-800A-34DB750F5FF2}"/>
+    <hyperlink ref="A421" r:id="rId5" xr:uid="{0D4B9A6F-ECF3-E543-B96E-8DB1310DEA93}"/>
+    <hyperlink ref="A420" r:id="rId6" xr:uid="{CDF0C795-08C7-8C4A-A55D-09F0D9051132}"/>
+    <hyperlink ref="A419" r:id="rId7" xr:uid="{A30E5294-BC85-D748-9785-BE9383593911}"/>
+    <hyperlink ref="A418" r:id="rId8" xr:uid="{B8B21B6F-6310-634E-B7D5-423A1EE12A15}"/>
+    <hyperlink ref="A417" r:id="rId9" xr:uid="{C25791CF-84C5-6244-9477-F81330755C4B}"/>
+    <hyperlink ref="A416" r:id="rId10" xr:uid="{5656D3E1-3424-B040-A871-D8DAFBA1DAC5}"/>
+    <hyperlink ref="A415" r:id="rId11" xr:uid="{63334E1C-2ECA-CB4E-BFE1-EB15B781F7B4}"/>
+    <hyperlink ref="A414" r:id="rId12" xr:uid="{41548F96-F9B1-DC46-AF99-117F6997DEC8}"/>
+    <hyperlink ref="A413" r:id="rId13" xr:uid="{19DCA680-3466-AC46-A62C-E17A5A22781E}"/>
+    <hyperlink ref="A412" r:id="rId14" xr:uid="{4BE392BD-7D7B-F24C-9351-B34394EB2D42}"/>
+    <hyperlink ref="A411" r:id="rId15" xr:uid="{7923E4C2-75C0-DD4C-9105-27BAC5AA4B6B}"/>
+    <hyperlink ref="A410" r:id="rId16" xr:uid="{A83129F4-1A29-314C-BF63-DE8CDFDBD41B}"/>
+    <hyperlink ref="A409" r:id="rId17" xr:uid="{74001ACE-DF8D-284B-AB1B-CC380957016B}"/>
+    <hyperlink ref="A408" r:id="rId18" xr:uid="{2446E34B-CB82-E342-9894-F28B7B978065}"/>
+    <hyperlink ref="A407" r:id="rId19" xr:uid="{5D52E6CA-F850-2447-9C3B-44BCE0CA9BDD}"/>
+    <hyperlink ref="A406" r:id="rId20" xr:uid="{ACD6A030-B40A-0849-B293-DC960C8420A8}"/>
+    <hyperlink ref="A405" r:id="rId21" xr:uid="{F7338158-B929-CA4F-8A03-D57FEF133ACB}"/>
+    <hyperlink ref="A404" r:id="rId22" xr:uid="{609349E0-557D-484E-8432-281C833D8461}"/>
+    <hyperlink ref="A403" r:id="rId23" xr:uid="{6A0C2F9F-5F9D-F447-894B-3EA56D91FD8D}"/>
+    <hyperlink ref="A402" r:id="rId24" xr:uid="{4B89E58B-B52C-D246-B651-F2CB008474AA}"/>
+    <hyperlink ref="A401" r:id="rId25" xr:uid="{8C7DA305-0676-A74F-982B-747D0B620E94}"/>
+    <hyperlink ref="A400" r:id="rId26" xr:uid="{7159A14B-39E8-AE41-BA8D-40817ADDCD2D}"/>
+    <hyperlink ref="A399" r:id="rId27" xr:uid="{A7AE84CB-AA54-A542-8E07-BA746D9BED38}"/>
+    <hyperlink ref="A398" r:id="rId28" xr:uid="{2687C450-6E1F-5240-AA98-074F6A766B6B}"/>
+    <hyperlink ref="A397" r:id="rId29" xr:uid="{7272EBE8-7D55-F64D-9296-2A169BEC92CC}"/>
+    <hyperlink ref="A396" r:id="rId30" xr:uid="{CA4BE50F-A78E-9F4C-98C1-81D6AC598C1F}"/>
+    <hyperlink ref="A395" r:id="rId31" xr:uid="{40C961F5-57F8-6D4E-8094-C385695A6897}"/>
+    <hyperlink ref="A394" r:id="rId32" xr:uid="{F1830212-DAEA-A144-8D4E-388F634B9539}"/>
+    <hyperlink ref="A393" r:id="rId33" xr:uid="{553FAFC4-6BF8-3445-96B7-2645AB62B283}"/>
+    <hyperlink ref="A392" r:id="rId34" xr:uid="{D0EC43EE-149B-3A4E-9083-365F6FE2DAED}"/>
+    <hyperlink ref="A391" r:id="rId35" xr:uid="{473C56B4-A82F-2B4D-A78C-443DCB5F76D2}"/>
+    <hyperlink ref="A390" r:id="rId36" xr:uid="{48701AAE-FF29-4C43-A5DE-D047066E861B}"/>
+    <hyperlink ref="A389" r:id="rId37" xr:uid="{6A05DE32-35AA-8B4E-BCAD-C39614DAAA48}"/>
+    <hyperlink ref="A388" r:id="rId38" xr:uid="{9E247367-E1CB-E543-B8A5-422BD71B07DE}"/>
+    <hyperlink ref="A387" r:id="rId39" xr:uid="{20E0BABB-8759-944E-8FD5-4EE7B04D1640}"/>
+    <hyperlink ref="A386" r:id="rId40" xr:uid="{5B5A6421-04A6-D94C-B17E-42145AAFF412}"/>
+    <hyperlink ref="A385" r:id="rId41" xr:uid="{8C9BD0EC-C369-B147-AF0D-BB0716808E2E}"/>
+    <hyperlink ref="A384" r:id="rId42" xr:uid="{1AEFD39E-DB54-6647-84D2-7EB19F2EBF5E}"/>
+    <hyperlink ref="A383" r:id="rId43" xr:uid="{E59C084F-48EA-5E44-8A20-2BB1C5E129F5}"/>
+    <hyperlink ref="A382" r:id="rId44" xr:uid="{0F513FE0-2D9C-0B40-96DD-7350AE4B53E7}"/>
+    <hyperlink ref="A381" r:id="rId45" xr:uid="{2C4E90F2-6B9E-7846-8FD7-9564D14D12C0}"/>
+    <hyperlink ref="A380" r:id="rId46" xr:uid="{EF58A7EB-BCF2-E742-B632-E0A81137EE68}"/>
+    <hyperlink ref="A379" r:id="rId47" xr:uid="{78E7E506-4FF4-C24E-85DD-587BA6AB6F78}"/>
+    <hyperlink ref="A378" r:id="rId48" xr:uid="{36FDFAF6-20B3-B146-BE6A-97795B330A72}"/>
+    <hyperlink ref="A377" r:id="rId49" xr:uid="{38101EEA-C670-DE41-BF1D-BAA8E76C4CEF}"/>
+    <hyperlink ref="A376" r:id="rId50" xr:uid="{2F3D6B7E-9778-1144-A89B-CC7CFE336E92}"/>
+    <hyperlink ref="A375" r:id="rId51" xr:uid="{6D638759-0E67-E049-968D-8A05912D146D}"/>
+    <hyperlink ref="A374" r:id="rId52" xr:uid="{AD4592CC-147F-D34D-B9DD-4F6B64D6DD7A}"/>
+    <hyperlink ref="A373" r:id="rId53" xr:uid="{0B3ABF94-C66D-EF40-B6AA-1C4EA28BAD5D}"/>
+    <hyperlink ref="A372" r:id="rId54" xr:uid="{4F759658-CFB1-6349-BE36-6381AFD04EDD}"/>
+    <hyperlink ref="A371" r:id="rId55" xr:uid="{B7042DF6-24A1-0048-B1C1-E6F9A31B6FB4}"/>
+    <hyperlink ref="A370" r:id="rId56" xr:uid="{63429773-AA92-3048-A228-D7490C8AB037}"/>
+    <hyperlink ref="A369" r:id="rId57" xr:uid="{7076C862-F083-C949-AB01-CA12E781D9FB}"/>
+    <hyperlink ref="A368" r:id="rId58" xr:uid="{82F2F25C-765E-4B4D-97AD-B8F37C3A7B2B}"/>
+    <hyperlink ref="A367" r:id="rId59" xr:uid="{FE825D45-7AA7-DE4C-A463-001D91795F6C}"/>
+    <hyperlink ref="A366" r:id="rId60" xr:uid="{96E118E4-A8FA-2A4C-990C-DA7E4F07672E}"/>
+    <hyperlink ref="A365" r:id="rId61" xr:uid="{4032C558-F681-374A-A272-DD3D06092FC6}"/>
+    <hyperlink ref="A364" r:id="rId62" xr:uid="{3A493C6A-A6B0-3D4E-B1DD-588C8A6CE63C}"/>
+    <hyperlink ref="A363" r:id="rId63" xr:uid="{28886844-673F-2540-AD52-C8BC19A2D6B2}"/>
+    <hyperlink ref="A362" r:id="rId64" xr:uid="{882E19A4-B636-D84F-82F9-850768FF8B75}"/>
+    <hyperlink ref="A361" r:id="rId65" xr:uid="{6E791EA7-28AB-CD44-9CA3-74B47D21D672}"/>
+    <hyperlink ref="A360" r:id="rId66" xr:uid="{3806035C-5B89-A240-8A4C-86E5529109DE}"/>
+    <hyperlink ref="A359" r:id="rId67" xr:uid="{28F1A4B9-D766-1D4E-B5FC-92550C340420}"/>
+    <hyperlink ref="A358" r:id="rId68" xr:uid="{FF4F9F84-04BB-DD4C-A1AD-EE2512C71B5F}"/>
+    <hyperlink ref="A357" r:id="rId69" xr:uid="{745A7120-DDB7-034B-BA78-D951655219BE}"/>
+    <hyperlink ref="A356" r:id="rId70" xr:uid="{02A922D0-CF40-F741-9D36-4FE7E5531AA6}"/>
+    <hyperlink ref="A355" r:id="rId71" xr:uid="{D8EB0AEB-8E68-9945-BFCD-B131B5B03CAE}"/>
+    <hyperlink ref="A354" r:id="rId72" xr:uid="{7EDB5F98-9192-6646-B83B-8107BEC7A567}"/>
+    <hyperlink ref="A353" r:id="rId73" xr:uid="{4B6B5078-11AF-AC47-9517-870B418F8718}"/>
+    <hyperlink ref="A352" r:id="rId74" xr:uid="{CCB5E177-3DA1-3040-B8F6-BA44577A4B71}"/>
+    <hyperlink ref="A351" r:id="rId75" xr:uid="{E4ECD192-4A3B-4A4F-A0D8-4020A335ED85}"/>
+    <hyperlink ref="A350" r:id="rId76" xr:uid="{29487983-5A04-B54E-90EA-0373B2A3B2AE}"/>
+    <hyperlink ref="A349" r:id="rId77" xr:uid="{B75B8F79-8766-0A44-AC77-D1A3B0ADD8FC}"/>
+    <hyperlink ref="A348" r:id="rId78" xr:uid="{422977E0-21E2-594F-B34B-A790C4A11347}"/>
+    <hyperlink ref="A347" r:id="rId79" xr:uid="{7E148A8D-81AC-0C46-9D6E-4C4301979BFC}"/>
+    <hyperlink ref="A346" r:id="rId80" xr:uid="{4F0D050F-8691-1D45-B96C-40163265519B}"/>
+    <hyperlink ref="A345" r:id="rId81" xr:uid="{6E0A8365-B3D4-5942-B0AB-F23716976E48}"/>
+    <hyperlink ref="A344" r:id="rId82" xr:uid="{E2630672-97D4-9547-B215-9D0D54B45F0C}"/>
+    <hyperlink ref="A343" r:id="rId83" xr:uid="{916657FE-CADE-5E43-AEC2-843342B3B401}"/>
+    <hyperlink ref="A342" r:id="rId84" xr:uid="{0C0F9624-8FB2-A644-88BA-4F39D3F10030}"/>
+    <hyperlink ref="A341" r:id="rId85" xr:uid="{ED9FA12D-73C7-0146-A81F-DA96FAAEC8D5}"/>
+    <hyperlink ref="A340" r:id="rId86" xr:uid="{917745B2-760B-1B4B-9B8C-21C9360BFA86}"/>
+    <hyperlink ref="A339" r:id="rId87" xr:uid="{4D9CF065-A093-0741-85A6-E340C8E72262}"/>
+    <hyperlink ref="A338" r:id="rId88" xr:uid="{2CC0A51F-15EF-C840-AABA-7EE31E44D944}"/>
+    <hyperlink ref="A337" r:id="rId89" xr:uid="{3867E939-A7FC-7C46-8A00-A0ED668C0075}"/>
+    <hyperlink ref="A336" r:id="rId90" xr:uid="{BD7C6051-EBED-0747-8603-0DA309DF4CFD}"/>
+    <hyperlink ref="A335" r:id="rId91" xr:uid="{F7C70D78-9B0E-124D-86E7-BFD17B538118}"/>
+    <hyperlink ref="A334" r:id="rId92" xr:uid="{5B46ED3C-B9D6-E942-8F8A-118B7160FACA}"/>
+    <hyperlink ref="A333" r:id="rId93" xr:uid="{8D9CEFBA-A51A-B143-A08C-A475352BFA68}"/>
+    <hyperlink ref="A332" r:id="rId94" xr:uid="{918A0F6A-8D4E-4645-BFAA-7535D9E1FDDD}"/>
+    <hyperlink ref="A331" r:id="rId95" xr:uid="{14CBECC5-0AD4-8745-8825-D4F506850F37}"/>
+    <hyperlink ref="A330" r:id="rId96" xr:uid="{C8DBE558-B991-A34C-B35B-46EB7A9D2DEA}"/>
+    <hyperlink ref="A329" r:id="rId97" xr:uid="{5E1467AA-E943-534F-8F94-10B20B2CE267}"/>
+    <hyperlink ref="A328" r:id="rId98" xr:uid="{9D35E6B3-CFE6-2A48-8F8C-E27A58538C93}"/>
+    <hyperlink ref="A327" r:id="rId99" xr:uid="{43B627DC-5BE7-0B4A-9DB2-AF73600547E9}"/>
+    <hyperlink ref="A326" r:id="rId100" xr:uid="{06112C77-545B-0947-A863-A29F225FF889}"/>
+    <hyperlink ref="A325" r:id="rId101" xr:uid="{65F33488-4D66-B249-B32A-5BCF94F7BD8C}"/>
+    <hyperlink ref="A324" r:id="rId102" xr:uid="{E6D08C84-A01C-0E47-8898-C94E0F0D1B32}"/>
+    <hyperlink ref="A323" r:id="rId103" xr:uid="{02E68F0F-A006-DE4F-9C1D-8E1D831D8FFA}"/>
+    <hyperlink ref="A322" r:id="rId104" xr:uid="{B6117560-BA8F-6F42-9975-319E7F8A123F}"/>
+    <hyperlink ref="A321" r:id="rId105" xr:uid="{31D9F51B-2465-9646-857E-CCDC81406B5A}"/>
+    <hyperlink ref="A320" r:id="rId106" xr:uid="{E45FC78C-83B2-9E4C-A0F9-A14BE4F1136D}"/>
+    <hyperlink ref="A319" r:id="rId107" xr:uid="{21E0CD73-F540-8842-AB19-6B70E39FD6EB}"/>
+    <hyperlink ref="A318" r:id="rId108" xr:uid="{53EB488A-394C-F34A-9688-E538EA970CE3}"/>
+    <hyperlink ref="A317" r:id="rId109" xr:uid="{7DDD1EBF-9E73-8B43-9D49-B98FD224B12B}"/>
+    <hyperlink ref="A316" r:id="rId110" xr:uid="{9CFCE34E-C276-D34D-BB82-54AAD30F3DAC}"/>
+    <hyperlink ref="A315" r:id="rId111" xr:uid="{BB9BF52B-6A32-FC48-BE13-9D3C9D76CD42}"/>
+    <hyperlink ref="A314" r:id="rId112" xr:uid="{64445201-8776-1945-901B-AAEC21249E48}"/>
+    <hyperlink ref="A313" r:id="rId113" xr:uid="{238DF38D-42F3-9C4F-B580-A4CE3651D74E}"/>
+    <hyperlink ref="A312" r:id="rId114" xr:uid="{410E1620-DA2B-A743-8A27-A0728B1E7971}"/>
+    <hyperlink ref="A311" r:id="rId115" xr:uid="{92608D27-E820-1343-994C-02CAD25DAA25}"/>
+    <hyperlink ref="A310" r:id="rId116" xr:uid="{0154FC0F-29E0-2842-AF7A-6FFFB2E36A8E}"/>
+    <hyperlink ref="A309" r:id="rId117" xr:uid="{3166BA4F-FFB8-C949-9B42-F4C380B65E04}"/>
+    <hyperlink ref="A308" r:id="rId118" xr:uid="{ACFE21AD-70F1-184E-8910-E74835015713}"/>
+    <hyperlink ref="A307" r:id="rId119" xr:uid="{009D6142-5CE1-C14E-8FA9-F752CB751C3C}"/>
+    <hyperlink ref="A306" r:id="rId120" xr:uid="{D89CE446-0BAA-E446-AD00-3A64A446A8C8}"/>
+    <hyperlink ref="A305" r:id="rId121" xr:uid="{6F7A79D8-3890-6743-8ECD-D1BF6F1AB502}"/>
+    <hyperlink ref="A304" r:id="rId122" xr:uid="{80C227D5-F25F-4C4C-899C-F282D4F13B2F}"/>
+    <hyperlink ref="A303" r:id="rId123" xr:uid="{87A684CF-75DB-804C-BE24-DE1DAF847B07}"/>
+    <hyperlink ref="A302" r:id="rId124" xr:uid="{408BDE2E-B365-6048-808D-DD176D6C0AA5}"/>
+    <hyperlink ref="A301" r:id="rId125" xr:uid="{6256980F-3CA4-D142-8EA2-596A17218B83}"/>
+    <hyperlink ref="A300" r:id="rId126" xr:uid="{45B2BE1B-B9E9-0B4B-91AF-2742A07BA4A2}"/>
+    <hyperlink ref="A299" r:id="rId127" xr:uid="{96632458-092B-D14D-948C-8C5462BDB10A}"/>
+    <hyperlink ref="A298" r:id="rId128" xr:uid="{62C19E83-7ACD-1142-AC6E-27A2E0F4FA07}"/>
+    <hyperlink ref="A297" r:id="rId129" xr:uid="{5EB1D9CA-30CC-0547-94B5-135CFBDEE659}"/>
+    <hyperlink ref="A296" r:id="rId130" xr:uid="{97ACA4ED-974A-AF42-9591-DF971EF10245}"/>
+    <hyperlink ref="A295" r:id="rId131" xr:uid="{65E32D8D-2D8B-5F45-BBBE-80FA2DEB95F6}"/>
+    <hyperlink ref="A294" r:id="rId132" xr:uid="{2881E3C5-FAF4-B749-A876-DE5E537818BF}"/>
+    <hyperlink ref="A293" r:id="rId133" xr:uid="{67DEDD80-95CE-3B48-A077-6B6761A8DCF8}"/>
+    <hyperlink ref="A292" r:id="rId134" xr:uid="{2A646E89-A03F-894E-A150-9338B5D75929}"/>
+    <hyperlink ref="A291" r:id="rId135" xr:uid="{BDE844A3-D4DA-644A-90E1-101B00061AAB}"/>
+    <hyperlink ref="A290" r:id="rId136" xr:uid="{E8A63187-4BA5-AB4A-A871-0E3F2BB4D164}"/>
+    <hyperlink ref="A289" r:id="rId137" xr:uid="{9ECCC195-41D0-B347-B00A-19DA0CA60EB9}"/>
+    <hyperlink ref="A288" r:id="rId138" xr:uid="{E99C1AA6-AD91-2C4B-8108-B3A0C365E357}"/>
+    <hyperlink ref="A287" r:id="rId139" xr:uid="{30CA1473-74D5-674B-8162-DC835732FFC4}"/>
+    <hyperlink ref="A286" r:id="rId140" xr:uid="{9DED1C4B-F201-CA4F-9598-6992844DD0B4}"/>
+    <hyperlink ref="A285" r:id="rId141" xr:uid="{D69640E0-A258-804D-99E7-40D14DE61A10}"/>
+    <hyperlink ref="A284" r:id="rId142" xr:uid="{3DE4EDC7-66C8-814F-8EAA-0E6430CA21A9}"/>
+    <hyperlink ref="A283" r:id="rId143" xr:uid="{044A7FAA-6B3A-5349-BB31-F12330DE75AE}"/>
+    <hyperlink ref="A282" r:id="rId144" xr:uid="{DCD55CA8-7551-6E43-B524-E3299D10074C}"/>
+    <hyperlink ref="A281" r:id="rId145" xr:uid="{5F5176EF-4FE2-3F4B-8B8A-C53DB2587664}"/>
+    <hyperlink ref="A280" r:id="rId146" xr:uid="{CC7F31BB-6F13-514E-87B9-A12F2E690804}"/>
+    <hyperlink ref="A279" r:id="rId147" xr:uid="{6B31EC4D-3CDB-584D-B6ED-39B8C5EF431A}"/>
+    <hyperlink ref="A278" r:id="rId148" xr:uid="{BE45E7F1-04BC-9646-9F79-10B32E5775A8}"/>
+    <hyperlink ref="A277" r:id="rId149" xr:uid="{2CB4F970-AC01-D842-B0D5-725BD0516020}"/>
+    <hyperlink ref="A276" r:id="rId150" xr:uid="{90BA7D36-BE23-B34C-9F97-4E00233E2D2E}"/>
+    <hyperlink ref="A275" r:id="rId151" xr:uid="{246E7FD2-9332-BC4F-9980-FDE387589570}"/>
+    <hyperlink ref="A274" r:id="rId152" xr:uid="{9A221440-1E88-3F48-B7D3-F1DC323741DF}"/>
+    <hyperlink ref="A273" r:id="rId153" xr:uid="{1F774A8C-2DBC-B74E-901D-8109FB36C3A3}"/>
+    <hyperlink ref="A272" r:id="rId154" xr:uid="{D7C1B7DE-B233-2544-B597-6AD59F3E3A68}"/>
+    <hyperlink ref="A271" r:id="rId155" xr:uid="{3039CDAE-E5E9-DC4D-B9AB-E547DE40701E}"/>
+    <hyperlink ref="A270" r:id="rId156" xr:uid="{F2E00374-D962-0F44-AAB5-63E7D87AB22E}"/>
+    <hyperlink ref="A269" r:id="rId157" xr:uid="{3878060D-EA05-1E46-830F-65C89654CCA0}"/>
+    <hyperlink ref="A268" r:id="rId158" xr:uid="{C534703F-A135-AE4A-8244-E14B7EB50A88}"/>
+    <hyperlink ref="A267" r:id="rId159" xr:uid="{D08B8065-C99B-3F4F-AD80-9B7CEC518482}"/>
+    <hyperlink ref="A266" r:id="rId160" xr:uid="{1C397A9C-288C-314C-BAE2-82D3CCCA9697}"/>
+    <hyperlink ref="A265" r:id="rId161" xr:uid="{EB44BEEB-B93F-2240-AF09-ECE05DB90D09}"/>
+    <hyperlink ref="A264" r:id="rId162" xr:uid="{0F5F7F32-747C-AC4B-A689-89C1BB73BDAF}"/>
+    <hyperlink ref="A263" r:id="rId163" xr:uid="{FFD4A1E8-03EB-2948-B6BC-4481F44427B9}"/>
+    <hyperlink ref="A262" r:id="rId164" xr:uid="{86B8281B-2A3B-3B46-B9B8-7368A1570EA5}"/>
+    <hyperlink ref="A261" r:id="rId165" xr:uid="{01E6E626-0D75-7F48-9CFD-083FC718ACD5}"/>
+    <hyperlink ref="A260" r:id="rId166" xr:uid="{E2F3A8EE-C700-5C4B-983E-B7C5DB867B49}"/>
+    <hyperlink ref="A259" r:id="rId167" xr:uid="{B03C655F-E79E-E449-B141-9C6E003BA684}"/>
+    <hyperlink ref="A258" r:id="rId168" xr:uid="{49707A56-BF3F-6949-B29D-4B80F67DF321}"/>
+    <hyperlink ref="A257" r:id="rId169" xr:uid="{9C5EF9DE-C75F-1345-AC31-6B23DEEAEFB3}"/>
+    <hyperlink ref="A256" r:id="rId170" xr:uid="{477A8BA0-EB33-4B46-B06B-1C7FF07FA1F2}"/>
+    <hyperlink ref="A255" r:id="rId171" xr:uid="{8EFB5FA2-E139-5044-9A2D-1B375DD04C29}"/>
+    <hyperlink ref="A254" r:id="rId172" xr:uid="{BF6D4E31-89B8-9A4B-B4D4-966D21B26928}"/>
+    <hyperlink ref="A253" r:id="rId173" xr:uid="{99E33A33-4EE0-4A46-A677-442CB771059C}"/>
+    <hyperlink ref="A252" r:id="rId174" xr:uid="{9EC99952-3687-F449-9D55-AAC98E46DA55}"/>
+    <hyperlink ref="A251" r:id="rId175" xr:uid="{F48A617D-E467-0C4A-986E-03074F1ABE48}"/>
+    <hyperlink ref="A250" r:id="rId176" xr:uid="{8A0D41C4-C327-3743-A362-DE0A5230CA80}"/>
+    <hyperlink ref="A249" r:id="rId177" xr:uid="{0FDD2BB0-055E-B445-AC29-4CDB8412DC31}"/>
+    <hyperlink ref="A248" r:id="rId178" xr:uid="{5325D853-64D9-5642-BE2E-85F9AFBBAA55}"/>
+    <hyperlink ref="A247" r:id="rId179" xr:uid="{84C72AEE-80DD-F543-BE80-5AB140F981EE}"/>
+    <hyperlink ref="A246" r:id="rId180" xr:uid="{3AC8617F-E4D9-6542-A66C-6BF8C9875017}"/>
+    <hyperlink ref="A245" r:id="rId181" xr:uid="{B9809826-ACE2-754D-9F6B-32FF9820F87E}"/>
+    <hyperlink ref="A244" r:id="rId182" xr:uid="{58D445C0-D99C-594A-9F84-047BCE4EC568}"/>
+    <hyperlink ref="A243" r:id="rId183" xr:uid="{99576674-105A-8142-A917-78F31DCE6D98}"/>
+    <hyperlink ref="A242" r:id="rId184" xr:uid="{6F21AC50-5889-304F-9E5D-547B6330E28F}"/>
+    <hyperlink ref="A241" r:id="rId185" xr:uid="{C1259A8C-986F-F946-A7DB-C48D228FB9AF}"/>
+    <hyperlink ref="A240" r:id="rId186" xr:uid="{34BE06A6-6444-B543-AFAD-4BFF0E0A4323}"/>
+    <hyperlink ref="A239" r:id="rId187" xr:uid="{C68454F2-CA7A-A144-B101-9BE9E716C8DE}"/>
+    <hyperlink ref="A238" r:id="rId188" xr:uid="{57A5F7F1-9E4B-744D-9BB3-0BBE2C24D335}"/>
+    <hyperlink ref="A237" r:id="rId189" xr:uid="{874D9D45-2A47-634C-AB10-A5FEAFCD98B3}"/>
+    <hyperlink ref="A236" r:id="rId190" xr:uid="{E48CF5F5-6D17-DF4C-BEDE-1E046B53D09E}"/>
+    <hyperlink ref="A235" r:id="rId191" xr:uid="{8FA43410-2626-5E49-8BAE-0683E0FBEBAA}"/>
+    <hyperlink ref="A234" r:id="rId192" xr:uid="{F049E740-24DF-084A-81DB-B9B5B60ECCC8}"/>
+    <hyperlink ref="A233" r:id="rId193" xr:uid="{BDDC0F56-96DA-B94B-94D4-DC5594DE0E17}"/>
+    <hyperlink ref="A232" r:id="rId194" xr:uid="{9ECC7233-1CC6-7540-B5A5-5B1B71D460B7}"/>
+    <hyperlink ref="A231" r:id="rId195" xr:uid="{118D8E35-08F5-FB4B-AED4-1ED2DE8FD32B}"/>
+    <hyperlink ref="A230" r:id="rId196" xr:uid="{261BF512-769A-0145-A41D-0F1707AB7C37}"/>
+    <hyperlink ref="A229" r:id="rId197" xr:uid="{38F11152-1850-864D-839B-DD35ECE113C1}"/>
+    <hyperlink ref="A228" r:id="rId198" xr:uid="{FE0104A6-708A-1148-808C-94F795C79158}"/>
+    <hyperlink ref="A227" r:id="rId199" xr:uid="{35378B95-A65A-0B42-88C5-980BA2C22B6C}"/>
+    <hyperlink ref="A226" r:id="rId200" xr:uid="{447CFB8C-19E6-D547-944B-9FF8EB5A9FB5}"/>
+    <hyperlink ref="A225" r:id="rId201" xr:uid="{A710CAF7-A1C8-A04F-A855-B780F6361D20}"/>
+    <hyperlink ref="A224" r:id="rId202" xr:uid="{DE448D4B-7C90-F54A-AFF4-E881C398B0EA}"/>
+    <hyperlink ref="A223" r:id="rId203" xr:uid="{95B68991-F058-304B-86D0-B49B80CCB75C}"/>
+    <hyperlink ref="A222" r:id="rId204" xr:uid="{1EB112EE-1935-F449-9ACB-AC46C426A536}"/>
+    <hyperlink ref="A221" r:id="rId205" xr:uid="{7B13AF40-1F4E-3A4D-8BAA-C2473BEA36A5}"/>
+    <hyperlink ref="A220" r:id="rId206" xr:uid="{66B62944-E1E1-704F-9744-9BE297DBCC0E}"/>
+    <hyperlink ref="A219" r:id="rId207" xr:uid="{B1F167AE-26C3-4848-ADA2-D5A52052330D}"/>
+    <hyperlink ref="A218" r:id="rId208" xr:uid="{DE9755B3-1DEF-C64D-AE5F-100AB9E0949C}"/>
+    <hyperlink ref="A217" r:id="rId209" xr:uid="{5CED4BCB-5312-8141-8F3F-95E14CF18C32}"/>
+    <hyperlink ref="A216" r:id="rId210" xr:uid="{96EC64DC-888A-364A-8595-C8A91C321BEB}"/>
+    <hyperlink ref="A426" r:id="rId211" xr:uid="{CD4BCDF3-F1F7-D44F-B4F0-8DF53CC85370}"/>
+    <hyperlink ref="A427" r:id="rId212" xr:uid="{F2F5C00F-7AEB-E04F-A2AF-BE72C8AAB4A7}"/>
+    <hyperlink ref="A428" r:id="rId213" xr:uid="{6AD8EE5A-76A7-F14B-826E-F6B9BE63B11A}"/>
+    <hyperlink ref="A429" r:id="rId214" xr:uid="{B94C2565-EF6C-1946-A2C2-D94CA510A026}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId211"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId215"/>
 </worksheet>
 </file>
 

--- a/資料集/帽子.xlsx
+++ b/資料集/帽子.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laiwei/Desktop/91APP_Image_Coding/資料集/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDC56E8-2F9A-6B4E-831D-8D453187D150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E281FD-98E6-DD45-90E9-148817DE5CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="469">
   <si>
     <t>商品分類</t>
   </si>
@@ -1934,6 +1934,18 @@
   </si>
   <si>
     <t>https://tpimage.91app.com/adidas/IB0448_OK/1-Main/All/IB0448_04.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/IX7000_OK/1-Main/All/IX7000_01.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/IX7000_OK/1-Main/All/IX7000_02.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/IX7000_OK/1-Main/All/IX7000_03.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/IX7000_OK/1-Main/All/IX7000_04.jpg</t>
   </si>
 </sst>
 </file>
@@ -2393,7 +2405,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A435" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A446" sqref="A446:D449"/>
+      <selection pane="bottomLeft" activeCell="A450" sqref="A450:D453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -10487,27 +10499,75 @@
       </c>
     </row>
     <row r="450" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E450" s="5" t="str" cm="1">
+      <c r="A450" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C450" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D450" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E450" s="5" cm="1">
         <f t="array" ref="E450">IF(C450="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C450)*(工作表2!B:B=D450), 0)),""))</f>
-        <v/>
+        <v>12</v>
       </c>
     </row>
     <row r="451" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E451" s="5" t="str" cm="1">
+      <c r="A451" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C451" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D451" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E451" s="5" cm="1">
         <f t="array" ref="E451">IF(C451="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C451)*(工作表2!B:B=D451), 0)),""))</f>
-        <v/>
+        <v>13</v>
       </c>
     </row>
     <row r="452" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E452" s="5" t="str" cm="1">
+      <c r="A452" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C452" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D452" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E452" s="5" cm="1">
         <f t="array" ref="E452">IF(C452="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C452)*(工作表2!B:B=D452), 0)),""))</f>
-        <v/>
+        <v>19</v>
       </c>
     </row>
     <row r="453" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E453" s="5" t="str" cm="1">
+      <c r="A453" s="22" t="s">
+        <v>468</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C453" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D453" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E453" s="5" cm="1">
         <f t="array" ref="E453">IF(C453="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C453)*(工作表2!B:B=D453), 0)),""))</f>
-        <v/>
+        <v>19</v>
       </c>
     </row>
     <row r="454" spans="1:5" ht="15.75" customHeight="1">
@@ -19518,9 +19578,13 @@
     <hyperlink ref="A447" r:id="rId232" xr:uid="{033A7433-CBEB-0C45-8BDE-D45F580895F0}"/>
     <hyperlink ref="A448" r:id="rId233" xr:uid="{F2141D30-C179-E94B-BBFB-18401CE3E605}"/>
     <hyperlink ref="A449" r:id="rId234" xr:uid="{62D3580D-72FE-4345-B85C-13A2DA92A7EE}"/>
+    <hyperlink ref="A450" r:id="rId235" xr:uid="{B4DDA42D-C0BD-9743-838E-FB7315FE5B68}"/>
+    <hyperlink ref="A451" r:id="rId236" xr:uid="{E38401A4-9ABF-9643-90B0-B1797A49C65E}"/>
+    <hyperlink ref="A452" r:id="rId237" xr:uid="{9BA13EFC-5F73-B04E-AEA9-92E06FEE0DFB}"/>
+    <hyperlink ref="A453" r:id="rId238" xr:uid="{885FABF0-C706-9243-B5AF-AC5E86B236C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId235"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId239"/>
 </worksheet>
 </file>
 
